--- a/Bug.xlsx
+++ b/Bug.xlsx
@@ -1,77 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FEE851-1576-4953-AAA5-54429778B209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4A318FE-FEC6-4884-A573-E49AD07FA190}"/>
   </bookViews>
   <sheets>
-    <sheet name="Client" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>1. Không đăng ký học sinh được</t>
-  </si>
-  <si>
-    <t>2. Click vào giáo viên thì hiển thị danh sách lớp do giáo viên đó dạy (sửa cái khung bo cho khớp)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Thêm cái button để tích all 1 phát đi </t>
-  </si>
-  <si>
-    <t>4. Lùi cái button điểm danh dịch vào trong</t>
-  </si>
-  <si>
-    <t>Chưa hiển thị báo cáo điểm danh</t>
-  </si>
-  <si>
-    <t>Thống kế thời khóa biểu giáo viên là bên admin nhé, kp bên kế toán</t>
-  </si>
-  <si>
-    <t>Tổng học phí đang hiển thị sai</t>
-  </si>
-  <si>
-    <t>Lùi total ra cột cuối</t>
-  </si>
-  <si>
-    <t>học phí vs điểm danh đang k khớp</t>
-  </si>
-  <si>
-    <t>Đăng nhập là giáo viên thì disable cái button đăng ký học đi</t>
-  </si>
-  <si>
-    <t>Lùi total ra cột cuối/ đổi tên cột kia là tổng học sinh</t>
-  </si>
-  <si>
-    <t>Hiển thị không khớp/ bên client đúng nhé</t>
-  </si>
-  <si>
-    <t>Label ngược rồi</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Xóa hk sinh -&gt; báo thành công, load lại vẫn còn( chưa call xóa trong db)</t>
+  </si>
+  <si>
+    <t>Xóa giao viên -&gt; báo thành công, load lại vẫn còn( chưa call xóa trong db)</t>
+  </si>
+  <si>
+    <t>http://localhost:59900/Class   lỗi</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản học sinh lỗi</t>
+  </si>
+  <si>
+    <t>Không xóa được học sinh khỏi lớp họp đã đăng ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client: click vào lớp hk chết. K xem đk  lớp hk </t>
+  </si>
+  <si>
+    <t>Sắp xếp lại ngày theo lần lượt, bỏ time start, time end</t>
+  </si>
+  <si>
+    <t>Click vào giáo viên -&gt; xem thông tin danh sách lớp giáo viên dạy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đẩy thu chi lùi xuống </t>
+  </si>
+  <si>
+    <t>để lại thứ tự của tháng từ 1-&gt;12, năm từ 2015 trở đi( báo cáo thu chi )</t>
+  </si>
+  <si>
+    <t>Sửa lại title cho thời khóa biểu của giáo viên(bỏ thống kê thời khóa biểu bên kế toán đi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload ảnh giáo viên k đk </t>
+  </si>
+  <si>
+    <t>Bỏ nút search</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại số lượng lớp hk( đang hiển thị tất cả đều 50). bỏ comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,13 +87,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,13 +125,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,32 +173,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15715</xdr:rowOff>
+      <xdr:colOff>4396739</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>432054</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3573779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1A597A-1DD0-4BB5-89EB-C469C1F83891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="70347"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240" y="198595"/>
-          <a:ext cx="8951214" cy="1493045"/>
+          <a:off x="4396739" y="954358"/>
+          <a:ext cx="6934201" cy="3533821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -161,32 +217,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4389120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336380</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2995283</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB04203-4298-4158-BB53-458B654EFE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect b="32276"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2377440"/>
-          <a:ext cx="8261180" cy="3147060"/>
+          <a:off x="4389120" y="4907280"/>
+          <a:ext cx="6919583" cy="3585930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -198,32 +261,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4381500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>14621</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3108569</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1470422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A63F71-910A-4CB1-AF42-674E2A4A94CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect r="20060"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6217920"/>
-          <a:ext cx="8641080" cy="4952381"/>
+          <a:off x="4381500" y="8656320"/>
+          <a:ext cx="3123809" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -235,247 +305,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4395045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>66438</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1430272</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3016234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:srcRect r="12816"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11338560"/>
-          <a:ext cx="8519160" cy="1895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>141828</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect r="10061"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="17556480"/>
-          <a:ext cx="10629900" cy="8371428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>131812</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13868400"/>
-          <a:ext cx="7952509" cy="2833448"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect r="43325"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9797143" cy="3748305"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>97971</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>158305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect r="18997"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3886200"/>
-          <a:ext cx="9851571" cy="7190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>283029</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>109371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect r="29744"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12028714"/>
-          <a:ext cx="10036629" cy="6771428"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>388571</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>125952</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CA40FE-5508-49CC-B85C-4C3B56D098FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -488,8 +336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19431000"/>
-          <a:ext cx="15628571" cy="4752381"/>
+          <a:off x="4395045" y="10637520"/>
+          <a:ext cx="5348647" cy="3008614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -500,20 +348,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>303467</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>111009</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3436621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2453639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F4866E-7DC7-4B4B-845B-7300D45B4660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -526,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24982714"/>
-          <a:ext cx="10666667" cy="4552381"/>
+          <a:off x="4404361" y="14302740"/>
+          <a:ext cx="3429000" cy="2415539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -556,7 +410,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -568,7 +422,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -615,6 +469,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -650,6 +521,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -801,98 +689,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A144"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFBC43C-E41F-40F0-BF59-82C44741111B}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="12" spans="1:3" ht="243" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>9</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{06987E71-D039-4E2A-B0B1-03CD1742502B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A62:A162"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V159" sqref="V159"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Bug.xlsx
+++ b/Bug.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FEE851-1576-4953-AAA5-54429778B209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4A318FE-FEC6-4884-A573-E49AD07FA190}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Xóa hk sinh -&gt; báo thành công, load lại vẫn còn( chưa call xóa trong db)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Xóa giao viên -&gt; báo thành công, load lại vẫn còn( chưa call xóa trong db)</t>
   </si>
@@ -73,13 +65,83 @@
   </si>
   <si>
     <t>Kiểm tra lại số lượng lớp hk( đang hiển thị tất cả đều 50). bỏ comment</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>1. Không thêm được môn thứ 2 cùng khối</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsjqy9</t>
+  </si>
+  <si>
+    <t>4. Không xóa lớp học được (Cho phép xóa những lớp k có hs học hoặc dky)</t>
+  </si>
+  <si>
+    <t>2. Không đăng ký học sinh dk</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsjv8c</t>
+  </si>
+  <si>
+    <t>1. Đang hiển thị theo chi tiết TKB nên 1 lớp bị double 2 lần
+-&gt; gộp lại thành 1 (không hiển thị tg học ở list lớp cx dk, nhưng detail thì hiển thị cả 2 lịch)</t>
+  </si>
+  <si>
+    <t>3. Không xóa dk hs (Cho phép xóa những hs chưa đăng ký học)</t>
+  </si>
+  <si>
+    <t>2. Không xóa được môn học (Cho phép xóa những môn k có lớp, hoặc k có gv đăng ký)</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsl1uv</t>
+  </si>
+  <si>
+    <t>4. Sắp xếp ngày điểm danh lần lượt</t>
+  </si>
+  <si>
+    <t>5. Add 1 học sinh vào 2 lớp cùng giờ cùng ngày vẫn thành công</t>
+  </si>
+  <si>
+    <t>3. Đăng ký học 2 lớp trùng lịch học dk (chặn đăng ký cùng giờ cùng ngày)</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsl52x</t>
+  </si>
+  <si>
+    <t>6. Học phí k khớp vs client (client hiển thị đúng)</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsl5eg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Điểm danh hs A ở lớp khác xong sang acc khác để điểm danh lớp khác cùng ngày khác giờ thì checkbox hs A đã tự động check </t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsl9h1</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsld5e</t>
+  </si>
+  <si>
+    <t>7.Lấy ngày đăng ký trong db</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/tsle8x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Hiển thị k ra đủ 10 bản ghi trên 1 trang </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +159,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,6 +220,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -689,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFBC43C-E41F-40F0-BF59-82C44741111B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,82 +783,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="243" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="202.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{06987E71-D039-4E2A-B0B1-03CD1742502B}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="72.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>